--- a/data/pca/factorExposure/factorExposure_2012-11-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-08.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001505213143328446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002201186057442731</v>
+      </c>
+      <c r="C2">
+        <v>-0.02976709967852903</v>
+      </c>
+      <c r="D2">
+        <v>0.005094641402239994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001219473029953055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006973362875590021</v>
+      </c>
+      <c r="C4">
+        <v>-0.08299125993737565</v>
+      </c>
+      <c r="D4">
+        <v>0.07492793798214863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0005391073130086003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01458624214666917</v>
+      </c>
+      <c r="C6">
+        <v>-0.1152483281972624</v>
+      </c>
+      <c r="D6">
+        <v>0.02929050421616343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002227217505957933</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004809285936613309</v>
+      </c>
+      <c r="C7">
+        <v>-0.05851136715040427</v>
+      </c>
+      <c r="D7">
+        <v>0.03293320014795147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0002963432536364086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005949390025158001</v>
+      </c>
+      <c r="C8">
+        <v>-0.03660411361389835</v>
+      </c>
+      <c r="D8">
+        <v>0.03989596159506612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003864952035281342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.005137673523848139</v>
+      </c>
+      <c r="C9">
+        <v>-0.07103380128121498</v>
+      </c>
+      <c r="D9">
+        <v>0.07342937656898765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001638178091911445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005743118782666108</v>
+      </c>
+      <c r="C10">
+        <v>-0.05540737553183105</v>
+      </c>
+      <c r="D10">
+        <v>-0.1980395742192557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004579885245127033</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005603167064204947</v>
+      </c>
+      <c r="C11">
+        <v>-0.07965449756190775</v>
+      </c>
+      <c r="D11">
+        <v>0.06344882462507018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001580906522836462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003970252900771675</v>
+      </c>
+      <c r="C12">
+        <v>-0.06378032550968796</v>
+      </c>
+      <c r="D12">
+        <v>0.04932175638236058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001825378415882026</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009035959923076651</v>
+      </c>
+      <c r="C13">
+        <v>-0.06990373400153528</v>
+      </c>
+      <c r="D13">
+        <v>0.05630098141795593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002296465148232744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001101547712463092</v>
+      </c>
+      <c r="C14">
+        <v>-0.0439466018029904</v>
+      </c>
+      <c r="D14">
+        <v>0.006100096747756594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0005223116241926073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006051357367658506</v>
+      </c>
+      <c r="C15">
+        <v>-0.04194109011325715</v>
+      </c>
+      <c r="D15">
+        <v>0.03168331089209205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002374423880717446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004957917316718052</v>
+      </c>
+      <c r="C16">
+        <v>-0.06414546895807879</v>
+      </c>
+      <c r="D16">
+        <v>0.05435331397782385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0007667768439353629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008773955098721664</v>
+      </c>
+      <c r="C20">
+        <v>-0.0657806173574127</v>
+      </c>
+      <c r="D20">
+        <v>0.04399439689319012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.006075112622051003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009883508366343939</v>
+      </c>
+      <c r="C21">
+        <v>-0.02176481798511042</v>
+      </c>
+      <c r="D21">
+        <v>0.03929164021637953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01621750813153082</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006167990082568204</v>
+      </c>
+      <c r="C22">
+        <v>-0.09249557490780397</v>
+      </c>
+      <c r="D22">
+        <v>0.1186334165808027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01653637945763829</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.005972608347703542</v>
+      </c>
+      <c r="C23">
+        <v>-0.09325854766800061</v>
+      </c>
+      <c r="D23">
+        <v>0.1186257128301621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003492900474182814</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005494111711707958</v>
+      </c>
+      <c r="C24">
+        <v>-0.07580287282511609</v>
+      </c>
+      <c r="D24">
+        <v>0.06700477935278047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005892186478321456</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003220535982914923</v>
+      </c>
+      <c r="C25">
+        <v>-0.07798130681607421</v>
+      </c>
+      <c r="D25">
+        <v>0.0644356853871571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004175652557106815</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003612660749961495</v>
+      </c>
+      <c r="C26">
+        <v>-0.03880963973657386</v>
+      </c>
+      <c r="D26">
+        <v>0.02363841569353212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.007495403766908495</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009081069040046184</v>
+      </c>
+      <c r="C28">
+        <v>-0.1046960796056096</v>
+      </c>
+      <c r="D28">
+        <v>-0.3232723972866521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001302359002505403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002842466032262231</v>
+      </c>
+      <c r="C29">
+        <v>-0.04986400565370315</v>
+      </c>
+      <c r="D29">
+        <v>0.006775478901411948</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.004979657747358985</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01022503466233735</v>
+      </c>
+      <c r="C30">
+        <v>-0.1428573161789867</v>
+      </c>
+      <c r="D30">
+        <v>0.104542342193873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>2.28942589859037e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006475755950700694</v>
+      </c>
+      <c r="C31">
+        <v>-0.04444307765749936</v>
+      </c>
+      <c r="D31">
+        <v>0.02996511997073868</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0009657219137794646</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003615529385222736</v>
+      </c>
+      <c r="C32">
+        <v>-0.03956429521735942</v>
+      </c>
+      <c r="D32">
+        <v>0.02465788969807529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003494225908220304</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008675393172075016</v>
+      </c>
+      <c r="C33">
+        <v>-0.08679282338157389</v>
+      </c>
+      <c r="D33">
+        <v>0.06589147300525251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005237415687663642</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004093864036360233</v>
+      </c>
+      <c r="C34">
+        <v>-0.05797452606947524</v>
+      </c>
+      <c r="D34">
+        <v>0.05598152285687241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0004968466400133799</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005180522519270118</v>
+      </c>
+      <c r="C35">
+        <v>-0.04076406071122496</v>
+      </c>
+      <c r="D35">
+        <v>0.01824395750011075</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004502336496737174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001022111042258728</v>
+      </c>
+      <c r="C36">
+        <v>-0.02507295129850605</v>
+      </c>
+      <c r="D36">
+        <v>0.02362522959932598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001203526431209563</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.008940563849931318</v>
+      </c>
+      <c r="C38">
+        <v>-0.03490359376416909</v>
+      </c>
+      <c r="D38">
+        <v>0.01553206041456211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01369399338707268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0008693849058187405</v>
+      </c>
+      <c r="C39">
+        <v>-0.1148396537085755</v>
+      </c>
+      <c r="D39">
+        <v>0.0753119290993456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009313002624507802</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.003656684878264657</v>
+      </c>
+      <c r="C40">
+        <v>-0.09050503900311377</v>
+      </c>
+      <c r="D40">
+        <v>0.01248930388420179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.000958211792010308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007079439850787461</v>
+      </c>
+      <c r="C41">
+        <v>-0.03724383699859903</v>
+      </c>
+      <c r="D41">
+        <v>0.03803675433907844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.00385782349962193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003916739727771385</v>
+      </c>
+      <c r="C43">
+        <v>-0.05303415763548218</v>
+      </c>
+      <c r="D43">
+        <v>0.02607750239283699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01582056719083706</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003134523387815968</v>
+      </c>
+      <c r="C44">
+        <v>-0.107705899876142</v>
+      </c>
+      <c r="D44">
+        <v>0.06719321403065169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0005739392769091233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002249595270267804</v>
+      </c>
+      <c r="C46">
+        <v>-0.03302318031618604</v>
+      </c>
+      <c r="D46">
+        <v>0.03254051757664717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.001903369936641991</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002377209904696145</v>
+      </c>
+      <c r="C47">
+        <v>-0.03647687730128181</v>
+      </c>
+      <c r="D47">
+        <v>0.02047696802207098</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004118848888115925</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.00681888800787631</v>
+      </c>
+      <c r="C48">
+        <v>-0.03043647719079235</v>
+      </c>
+      <c r="D48">
+        <v>0.035008791074952</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01289012489902252</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01674547035408095</v>
+      </c>
+      <c r="C49">
+        <v>-0.1863066779116813</v>
+      </c>
+      <c r="D49">
+        <v>0.01311218050391235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001979475327954551</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003757419838194232</v>
+      </c>
+      <c r="C50">
+        <v>-0.04309707642230565</v>
+      </c>
+      <c r="D50">
+        <v>0.03715613592138049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0003343344291037271</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004760981214223199</v>
+      </c>
+      <c r="C51">
+        <v>-0.02546684697143776</v>
+      </c>
+      <c r="D51">
+        <v>0.02049632330491837</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008311347143037974</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02122916902746857</v>
+      </c>
+      <c r="C53">
+        <v>-0.1695504966284569</v>
+      </c>
+      <c r="D53">
+        <v>0.02667011116022918</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001789972210186706</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008966556999695676</v>
+      </c>
+      <c r="C54">
+        <v>-0.05459862065638495</v>
+      </c>
+      <c r="D54">
+        <v>0.04519401474672256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005674637149749541</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009639475505503616</v>
+      </c>
+      <c r="C55">
+        <v>-0.1093243709824977</v>
+      </c>
+      <c r="D55">
+        <v>0.0390249842338843</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.001300960644631012</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02033465891680045</v>
+      </c>
+      <c r="C56">
+        <v>-0.1764338672124252</v>
+      </c>
+      <c r="D56">
+        <v>0.01629880067047985</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009550395730154961</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01969352799532536</v>
+      </c>
+      <c r="C58">
+        <v>-0.1099926036262805</v>
+      </c>
+      <c r="D58">
+        <v>0.06231131880708727</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009701938859418977</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01007807956694158</v>
+      </c>
+      <c r="C59">
+        <v>-0.1627801433923771</v>
+      </c>
+      <c r="D59">
+        <v>-0.3334963697199385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005145221119944005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02547567217832843</v>
+      </c>
+      <c r="C60">
+        <v>-0.2251305502757237</v>
+      </c>
+      <c r="D60">
+        <v>0.02341022772563533</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.0153430459992228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001762549426078064</v>
+      </c>
+      <c r="C61">
+        <v>-0.09477674335673483</v>
+      </c>
+      <c r="D61">
+        <v>0.05608512714385719</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1589349030670416</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1482538286919194</v>
+      </c>
+      <c r="C62">
+        <v>-0.09511710540448763</v>
+      </c>
+      <c r="D62">
+        <v>0.02927795860707759</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0003814948818626214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.00668593641487583</v>
+      </c>
+      <c r="C63">
+        <v>-0.0541670636768709</v>
+      </c>
+      <c r="D63">
+        <v>0.02686288299573658</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0007084103526069556</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01557337577134543</v>
+      </c>
+      <c r="C64">
+        <v>-0.1039983881484282</v>
+      </c>
+      <c r="D64">
+        <v>0.06203705745655499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001775089123646479</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01805908421728897</v>
+      </c>
+      <c r="C65">
+        <v>-0.123863789683814</v>
+      </c>
+      <c r="D65">
+        <v>0.02107831821819598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007874805835330212</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.0135273232522189</v>
+      </c>
+      <c r="C66">
+        <v>-0.1595062902689691</v>
+      </c>
+      <c r="D66">
+        <v>0.1118587161780605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002939717057606616</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01547579774028156</v>
+      </c>
+      <c r="C67">
+        <v>-0.06611880054483606</v>
+      </c>
+      <c r="D67">
+        <v>0.02761200294525036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007467685439455386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0009694921580864364</v>
+      </c>
+      <c r="C68">
+        <v>-0.08513677357049579</v>
+      </c>
+      <c r="D68">
+        <v>-0.2627045059400161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002393990096412502</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006070828136142428</v>
+      </c>
+      <c r="C69">
+        <v>-0.05076476961649384</v>
+      </c>
+      <c r="D69">
+        <v>0.03654183070674144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003349800175767573</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001800896380356991</v>
+      </c>
+      <c r="C70">
+        <v>-0.003125612192222496</v>
+      </c>
+      <c r="D70">
+        <v>0.002564417052944907</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001732560687680214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005806720840986884</v>
+      </c>
+      <c r="C71">
+        <v>-0.09174835309978516</v>
+      </c>
+      <c r="D71">
+        <v>-0.3036763517376388</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005242135016493952</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01668542413275377</v>
+      </c>
+      <c r="C72">
+        <v>-0.1537329352484651</v>
+      </c>
+      <c r="D72">
+        <v>0.01459515384935139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0151286092747595</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03186838414904795</v>
+      </c>
+      <c r="C73">
+        <v>-0.2830429877528829</v>
+      </c>
+      <c r="D73">
+        <v>0.05742786564556108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.007362785961840038</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.00209261839760878</v>
+      </c>
+      <c r="C74">
+        <v>-0.1030939568028379</v>
+      </c>
+      <c r="D74">
+        <v>0.03454176562396602</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004065509285729316</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01154064652309712</v>
+      </c>
+      <c r="C75">
+        <v>-0.1230570890084249</v>
+      </c>
+      <c r="D75">
+        <v>0.02495994989045401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.00557835804368017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0227822006250413</v>
+      </c>
+      <c r="C76">
+        <v>-0.1493324142560909</v>
+      </c>
+      <c r="D76">
+        <v>0.05499511159164012</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.004717261464779434</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02310291500080354</v>
+      </c>
+      <c r="C77">
+        <v>-0.1163636785613009</v>
+      </c>
+      <c r="D77">
+        <v>0.06441213049137463</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0004832003273848218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01519108837113027</v>
+      </c>
+      <c r="C78">
+        <v>-0.09618502606449317</v>
+      </c>
+      <c r="D78">
+        <v>0.07460088639878031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02159790810597259</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03833022859721116</v>
+      </c>
+      <c r="C79">
+        <v>-0.1567264093756541</v>
+      </c>
+      <c r="D79">
+        <v>0.0294409999565226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005555145063321268</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01018599804897542</v>
+      </c>
+      <c r="C80">
+        <v>-0.03960518398442228</v>
+      </c>
+      <c r="D80">
+        <v>0.03027611424614675</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0004485020362594107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01577234472655154</v>
+      </c>
+      <c r="C81">
+        <v>-0.1298831027119877</v>
+      </c>
+      <c r="D81">
+        <v>0.03805622285612861</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.002215740858436639</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02030361672657479</v>
+      </c>
+      <c r="C82">
+        <v>-0.1394844591485454</v>
+      </c>
+      <c r="D82">
+        <v>0.0415221398601574</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.005103801047373509</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01063145903053694</v>
+      </c>
+      <c r="C83">
+        <v>-0.05870334177823881</v>
+      </c>
+      <c r="D83">
+        <v>0.04720705378574203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01297493541277998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01171479410447382</v>
+      </c>
+      <c r="C84">
+        <v>-0.03705402674950666</v>
+      </c>
+      <c r="D84">
+        <v>-0.001237430031395379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.012599904817628</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02930838447921948</v>
+      </c>
+      <c r="C85">
+        <v>-0.1253438135038389</v>
+      </c>
+      <c r="D85">
+        <v>0.04099375812031128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002907760267036623</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004734862489613348</v>
+      </c>
+      <c r="C86">
+        <v>-0.04991246920138512</v>
+      </c>
+      <c r="D86">
+        <v>0.03046941034605261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004163474458593426</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01105331813565479</v>
+      </c>
+      <c r="C87">
+        <v>-0.1290243338906318</v>
+      </c>
+      <c r="D87">
+        <v>0.06847150689160146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01176989836713003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.00273143822498192</v>
+      </c>
+      <c r="C88">
+        <v>-0.06319642837929861</v>
+      </c>
+      <c r="D88">
+        <v>0.02270367541337324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01571503122057825</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001495153777407767</v>
+      </c>
+      <c r="C89">
+        <v>-0.1385676820953814</v>
+      </c>
+      <c r="D89">
+        <v>-0.3206439779305327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.004012602589129582</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006777172447563314</v>
+      </c>
+      <c r="C90">
+        <v>-0.1189296458042905</v>
+      </c>
+      <c r="D90">
+        <v>-0.318169085506606</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001815227550354994</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01064839247277312</v>
+      </c>
+      <c r="C91">
+        <v>-0.1007444568426039</v>
+      </c>
+      <c r="D91">
+        <v>0.02224936175032725</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.0110600204395042</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001104039108478252</v>
+      </c>
+      <c r="C92">
+        <v>-0.134989035382814</v>
+      </c>
+      <c r="D92">
+        <v>-0.3257857972171616</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002615616611729223</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005117155505712264</v>
+      </c>
+      <c r="C93">
+        <v>-0.1040009692424153</v>
+      </c>
+      <c r="D93">
+        <v>-0.3022922742984132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0004087151097067758</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02248613715832401</v>
+      </c>
+      <c r="C94">
+        <v>-0.1463898859708598</v>
+      </c>
+      <c r="D94">
+        <v>0.04974554908141636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.003269717238611094</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01714246373842543</v>
+      </c>
+      <c r="C95">
+        <v>-0.122870615974253</v>
+      </c>
+      <c r="D95">
+        <v>0.06272010286647955</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001504938395967655</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03643413528220835</v>
+      </c>
+      <c r="C97">
+        <v>-0.2192513167704475</v>
+      </c>
+      <c r="D97">
+        <v>-0.01137530439227608</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003704314158345315</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03811641599057062</v>
+      </c>
+      <c r="C98">
+        <v>-0.2526705713393216</v>
+      </c>
+      <c r="D98">
+        <v>0.04075277244368308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.985246908051537</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9813430985005889</v>
+      </c>
+      <c r="C99">
+        <v>0.120624383925071</v>
+      </c>
+      <c r="D99">
+        <v>-0.02438863729238739</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001222124667450812</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.002883256862132007</v>
+      </c>
+      <c r="C101">
+        <v>-0.04999909729130188</v>
+      </c>
+      <c r="D101">
+        <v>0.007162415183968073</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
